--- a/doc/01 概要设计/10 实时会计系统概要设计.xlsx
+++ b/doc/01 概要设计/10 实时会计系统概要设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>实时会计系统概要设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,12 +305,108 @@
     <t>从计算机实现的角度，总账凭证是实时会计凭证在都一个时点的数据汇总镜像。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>账样必有项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账簿码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凭证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凭证字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凭证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分录号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计经办人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务经办人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核算对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借方金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷方金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借贷方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额的借贷方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +448,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -361,7 +472,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -410,13 +521,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -429,25 +551,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1302,19 +1454,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I59"/>
+  <dimension ref="A2:I79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="15"/>
+    <col min="3" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10.125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="33.75" customHeight="1">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1322,17 +1476,17 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1340,22 +1494,22 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1379,7 +1533,7 @@
       <c r="H11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="9">
@@ -1391,120 +1545,120 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="6"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="7"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>3</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1512,47 +1666,351 @@
       <c r="A29" s="1">
         <v>4</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>5</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="B53" s="8" t="s">
+    <row r="53" spans="1:9">
+      <c r="B53" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="B54" s="8" t="s">
+    <row r="54" spans="1:9">
+      <c r="B54" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="B56" s="8" t="s">
+    <row r="56" spans="1:9">
+      <c r="B56" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="B57" s="8" t="s">
+    <row r="57" spans="1:9">
+      <c r="B57" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="B59" s="8" t="s">
+    <row r="59" spans="1:9">
+      <c r="B59" s="17" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>6</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75">
+      <c r="B62" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="B63" s="6">
+        <v>1</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" s="6">
+        <v>2</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="6">
+        <v>3</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="6">
+        <v>4</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="6">
+        <v>5</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="6">
+        <v>6</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="6">
+        <v>7</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="6">
+        <v>8</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="6">
+        <v>9</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="6">
+        <v>10</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="6">
+        <v>11</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="6">
+        <v>12</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="6">
+        <v>13</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="6">
+        <v>14</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="6">
+        <v>15</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="6">
+        <v>16</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="6">
+        <v>17</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="12"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="38">
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
